--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>C1qb</t>
+  </si>
+  <si>
+    <t>Lrp1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>C1qb</t>
-  </si>
-  <si>
-    <t>Lrp1</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>16.17719</v>
+        <v>0.1005483333333333</v>
       </c>
       <c r="H2">
-        <v>48.53157</v>
+        <v>0.301645</v>
       </c>
       <c r="I2">
-        <v>0.04733604271602859</v>
+        <v>0.0001967301071135806</v>
       </c>
       <c r="J2">
-        <v>0.04733604271602859</v>
+        <v>0.0001967301071135806</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>382.3607896552233</v>
+        <v>0.1929428336394444</v>
       </c>
       <c r="R2">
-        <v>3441.24710689701</v>
+        <v>1.736485502755</v>
       </c>
       <c r="S2">
-        <v>0.003232031430580405</v>
+        <v>1.283470988651414E-06</v>
       </c>
       <c r="T2">
-        <v>0.003232031430580405</v>
+        <v>1.283470988651414E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>16.17719</v>
+        <v>0.1005483333333333</v>
       </c>
       <c r="H3">
-        <v>48.53157</v>
+        <v>0.301645</v>
       </c>
       <c r="I3">
-        <v>0.04733604271602859</v>
+        <v>0.0001967301071135806</v>
       </c>
       <c r="J3">
-        <v>0.04733604271602859</v>
+        <v>0.0001967301071135806</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>2932.736751393687</v>
+        <v>18.22824560124778</v>
       </c>
       <c r="R3">
-        <v>26394.63076254318</v>
+        <v>164.05421041123</v>
       </c>
       <c r="S3">
-        <v>0.02478993038661119</v>
+        <v>0.0001212557313578886</v>
       </c>
       <c r="T3">
-        <v>0.02478993038661118</v>
+        <v>0.0001212557313578886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>16.17719</v>
+        <v>0.1005483333333333</v>
       </c>
       <c r="H4">
-        <v>48.53157</v>
+        <v>0.301645</v>
       </c>
       <c r="I4">
-        <v>0.04733604271602859</v>
+        <v>0.0001967301071135806</v>
       </c>
       <c r="J4">
-        <v>0.04733604271602859</v>
+        <v>0.0001967301071135806</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>487.6296744728066</v>
+        <v>2.920695040329444</v>
       </c>
       <c r="R4">
-        <v>4388.667070255259</v>
+        <v>26.286255362965</v>
       </c>
       <c r="S4">
-        <v>0.004121851604608623</v>
+        <v>1.942869439746094E-05</v>
       </c>
       <c r="T4">
-        <v>0.004121851604608623</v>
+        <v>1.942869439746094E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>16.17719</v>
+        <v>0.1005483333333333</v>
       </c>
       <c r="H5">
-        <v>48.53157</v>
+        <v>0.301645</v>
       </c>
       <c r="I5">
-        <v>0.04733604271602859</v>
+        <v>0.0001967301071135806</v>
       </c>
       <c r="J5">
-        <v>0.04733604271602859</v>
+        <v>0.0001967301071135806</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>1797.294647138136</v>
+        <v>8.232345053757777</v>
       </c>
       <c r="R5">
-        <v>16175.65182424323</v>
+        <v>74.09110548382</v>
       </c>
       <c r="S5">
-        <v>0.01519222929422837</v>
+        <v>5.476221036957967E-05</v>
       </c>
       <c r="T5">
-        <v>0.01519222929422837</v>
+        <v>5.476221036957967E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1005483333333333</v>
+        <v>510.9972943333334</v>
       </c>
       <c r="H6">
-        <v>0.301645</v>
+        <v>1532.991883</v>
       </c>
       <c r="I6">
-        <v>0.0002942142734116461</v>
+        <v>0.9998032698928864</v>
       </c>
       <c r="J6">
-        <v>0.0002942142734116461</v>
+        <v>0.9998032698928864</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>2.376540062387222</v>
+        <v>980.5559444124308</v>
       </c>
       <c r="R6">
-        <v>21.388860561485</v>
+        <v>8825.003499711876</v>
       </c>
       <c r="S6">
-        <v>2.008849334314605E-05</v>
+        <v>0.006522735691520172</v>
       </c>
       <c r="T6">
-        <v>2.008849334314604E-05</v>
+        <v>0.006522735691520172</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1005483333333333</v>
+        <v>510.9972943333334</v>
       </c>
       <c r="H7">
-        <v>0.301645</v>
+        <v>1532.991883</v>
       </c>
       <c r="I7">
-        <v>0.0002942142734116461</v>
+        <v>0.9998032698928864</v>
       </c>
       <c r="J7">
-        <v>0.0002942142734116461</v>
+        <v>0.9998032698928864</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
-        <v>18.22824560124778</v>
+        <v>92637.87746537587</v>
       </c>
       <c r="R7">
-        <v>164.05421041123</v>
+        <v>833740.8971883828</v>
       </c>
       <c r="S7">
-        <v>0.0001540802935381924</v>
+        <v>0.6162344873572306</v>
       </c>
       <c r="T7">
-        <v>0.0001540802935381923</v>
+        <v>0.6162344873572306</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1005483333333333</v>
+        <v>510.9972943333334</v>
       </c>
       <c r="H8">
-        <v>0.301645</v>
+        <v>1532.991883</v>
       </c>
       <c r="I8">
-        <v>0.0002942142734116461</v>
+        <v>0.9998032698928864</v>
       </c>
       <c r="J8">
-        <v>0.0002942142734116461</v>
+        <v>0.9998032698928864</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>3.030832366567778</v>
+        <v>14843.28196901456</v>
       </c>
       <c r="R8">
-        <v>27.27749129911</v>
+        <v>133589.537721131</v>
       </c>
       <c r="S8">
-        <v>2.561911611909872E-05</v>
+        <v>0.09873868556944487</v>
       </c>
       <c r="T8">
-        <v>2.561911611909872E-05</v>
+        <v>0.09873868556944489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1005483333333333</v>
+        <v>510.9972943333334</v>
       </c>
       <c r="H9">
-        <v>0.301645</v>
+        <v>1532.991883</v>
       </c>
       <c r="I9">
-        <v>0.0002942142734116461</v>
+        <v>0.9998032698928864</v>
       </c>
       <c r="J9">
-        <v>0.0002942142734116461</v>
+        <v>0.9998032698928864</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>11.17097476623944</v>
+        <v>41837.65070021341</v>
       </c>
       <c r="R9">
-        <v>100.538772896155</v>
+        <v>376538.8563019207</v>
       </c>
       <c r="S9">
-        <v>9.442637041120898E-05</v>
+        <v>0.2783073612746907</v>
       </c>
       <c r="T9">
-        <v>9.442637041120896E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>325.4743193333334</v>
-      </c>
-      <c r="H10">
-        <v>976.4229580000001</v>
-      </c>
-      <c r="I10">
-        <v>0.9523697430105598</v>
-      </c>
-      <c r="J10">
-        <v>0.9523697430105597</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>23.63579766666667</v>
-      </c>
-      <c r="N10">
-        <v>70.907393</v>
-      </c>
-      <c r="O10">
-        <v>0.06827844587621175</v>
-      </c>
-      <c r="P10">
-        <v>0.06827844587621175</v>
-      </c>
-      <c r="Q10">
-        <v>7692.845157458722</v>
-      </c>
-      <c r="R10">
-        <v>69235.6064171285</v>
-      </c>
-      <c r="S10">
-        <v>0.0650263259522882</v>
-      </c>
-      <c r="T10">
-        <v>0.06502632595228819</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>325.4743193333334</v>
-      </c>
-      <c r="H11">
-        <v>976.4229580000001</v>
-      </c>
-      <c r="I11">
-        <v>0.9523697430105598</v>
-      </c>
-      <c r="J11">
-        <v>0.9523697430105597</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>181.2883913333334</v>
-      </c>
-      <c r="N11">
-        <v>543.865174</v>
-      </c>
-      <c r="O11">
-        <v>0.5237009467675041</v>
-      </c>
-      <c r="P11">
-        <v>0.523700946767504</v>
-      </c>
-      <c r="Q11">
-        <v>59004.71577225164</v>
-      </c>
-      <c r="R11">
-        <v>531042.4419502647</v>
-      </c>
-      <c r="S11">
-        <v>0.4987569360873547</v>
-      </c>
-      <c r="T11">
-        <v>0.4987569360873546</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>325.4743193333334</v>
-      </c>
-      <c r="H12">
-        <v>976.4229580000001</v>
-      </c>
-      <c r="I12">
-        <v>0.9523697430105598</v>
-      </c>
-      <c r="J12">
-        <v>0.9523697430105597</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>30.14303933333333</v>
-      </c>
-      <c r="N12">
-        <v>90.42911799999999</v>
-      </c>
-      <c r="O12">
-        <v>0.08707638763417187</v>
-      </c>
-      <c r="P12">
-        <v>0.08707638763417187</v>
-      </c>
-      <c r="Q12">
-        <v>9810.785209654561</v>
-      </c>
-      <c r="R12">
-        <v>88297.06688689104</v>
-      </c>
-      <c r="S12">
-        <v>0.08292891691344415</v>
-      </c>
-      <c r="T12">
-        <v>0.08292891691344415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>325.4743193333334</v>
-      </c>
-      <c r="H13">
-        <v>976.4229580000001</v>
-      </c>
-      <c r="I13">
-        <v>0.9523697430105598</v>
-      </c>
-      <c r="J13">
-        <v>0.9523697430105597</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>111.1005463333333</v>
-      </c>
-      <c r="N13">
-        <v>333.301639</v>
-      </c>
-      <c r="O13">
-        <v>0.3209442197221123</v>
-      </c>
-      <c r="P13">
-        <v>0.3209442197221123</v>
-      </c>
-      <c r="Q13">
-        <v>36160.37469540313</v>
-      </c>
-      <c r="R13">
-        <v>325443.3722586281</v>
-      </c>
-      <c r="S13">
-        <v>0.3056575640574727</v>
-      </c>
-      <c r="T13">
-        <v>0.3056575640574727</v>
+        <v>0.2783073612746907</v>
       </c>
     </row>
   </sheetData>
